--- a/data/pca/factorExposure/factorExposure_2012-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0008242256377322763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002320099946775565</v>
+      </c>
+      <c r="C2">
+        <v>-0.03114246298836243</v>
+      </c>
+      <c r="D2">
+        <v>0.003456869803423755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0007047878437942171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006573221994148321</v>
+      </c>
+      <c r="C4">
+        <v>-0.08375301911694762</v>
+      </c>
+      <c r="D4">
+        <v>0.07713762221328244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001716537299548428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01416285956896641</v>
+      </c>
+      <c r="C6">
+        <v>-0.1147637912120232</v>
+      </c>
+      <c r="D6">
+        <v>0.03221388970842649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001876385699807714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004622415215332679</v>
+      </c>
+      <c r="C7">
+        <v>-0.05810710269724894</v>
+      </c>
+      <c r="D7">
+        <v>0.03000139574250583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001415234641928617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005519751571280368</v>
+      </c>
+      <c r="C8">
+        <v>-0.03741140847715907</v>
+      </c>
+      <c r="D8">
+        <v>0.0422716692032007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003775484596701989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004682193377636412</v>
+      </c>
+      <c r="C9">
+        <v>-0.0708396834011629</v>
+      </c>
+      <c r="D9">
+        <v>0.07227883102504641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001804395482320136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005427412961505161</v>
+      </c>
+      <c r="C10">
+        <v>-0.05791193864814959</v>
+      </c>
+      <c r="D10">
+        <v>-0.1963716631606578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002692625226563968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005784870112801785</v>
+      </c>
+      <c r="C11">
+        <v>-0.08008408665702225</v>
+      </c>
+      <c r="D11">
+        <v>0.05931388352254832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.499090253539309e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004109251457609365</v>
+      </c>
+      <c r="C12">
+        <v>-0.06430700513260891</v>
+      </c>
+      <c r="D12">
+        <v>0.04591015020918487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001097386821963825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008976540587251808</v>
+      </c>
+      <c r="C13">
+        <v>-0.06852994784490353</v>
+      </c>
+      <c r="D13">
+        <v>0.05644939953601667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0008108930246460059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001350969671546869</v>
+      </c>
+      <c r="C14">
+        <v>-0.04460050111522278</v>
+      </c>
+      <c r="D14">
+        <v>0.005109540232762594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0008657300979637004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005969796981503705</v>
+      </c>
+      <c r="C15">
+        <v>-0.04189895630082899</v>
+      </c>
+      <c r="D15">
+        <v>0.02983783947171369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0008955429413218818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005107832019574593</v>
+      </c>
+      <c r="C16">
+        <v>-0.06545320833553275</v>
+      </c>
+      <c r="D16">
+        <v>0.04893749321649274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001273824203147669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00869228622530979</v>
+      </c>
+      <c r="C20">
+        <v>-0.06544172307846603</v>
+      </c>
+      <c r="D20">
+        <v>0.04331434993493201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005857183509491966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009869547906680863</v>
+      </c>
+      <c r="C21">
+        <v>-0.02150471343598386</v>
+      </c>
+      <c r="D21">
+        <v>0.03855888949727124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01691439454317177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006459878860558275</v>
+      </c>
+      <c r="C22">
+        <v>-0.09444216409773822</v>
+      </c>
+      <c r="D22">
+        <v>0.1139933249741223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01725895515140037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00628488959257751</v>
+      </c>
+      <c r="C23">
+        <v>-0.09526029818666157</v>
+      </c>
+      <c r="D23">
+        <v>0.1140040550354825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00155040514046507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005573513449300107</v>
+      </c>
+      <c r="C24">
+        <v>-0.0771676868533359</v>
+      </c>
+      <c r="D24">
+        <v>0.06359654952834051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004454942057423023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002981092283796801</v>
+      </c>
+      <c r="C25">
+        <v>-0.07825324425011128</v>
+      </c>
+      <c r="D25">
+        <v>0.0647374652533959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003755561084782427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003676209541903556</v>
+      </c>
+      <c r="C26">
+        <v>-0.04109821584862395</v>
+      </c>
+      <c r="D26">
+        <v>0.02235875796444624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.00491538537760013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006819780052047813</v>
+      </c>
+      <c r="C28">
+        <v>-0.1065471577725151</v>
+      </c>
+      <c r="D28">
+        <v>-0.3189750510138782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001481294949831825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003093164956561004</v>
+      </c>
+      <c r="C29">
+        <v>-0.05003770430423066</v>
+      </c>
+      <c r="D29">
+        <v>0.008821384306922411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003056022394549395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009747335082724323</v>
+      </c>
+      <c r="C30">
+        <v>-0.1422034921183468</v>
+      </c>
+      <c r="D30">
+        <v>0.102056317052473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0006045233017365023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00623243308339735</v>
+      </c>
+      <c r="C31">
+        <v>-0.0446634359074917</v>
+      </c>
+      <c r="D31">
+        <v>0.02858382142823713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0003039740978172334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004160355935698431</v>
+      </c>
+      <c r="C32">
+        <v>-0.03895405416590169</v>
+      </c>
+      <c r="D32">
+        <v>0.02324086780671717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001829389089176077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008679377891246577</v>
+      </c>
+      <c r="C33">
+        <v>-0.08692542603549622</v>
+      </c>
+      <c r="D33">
+        <v>0.06447265779024622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004579841210954371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004083374922839771</v>
+      </c>
+      <c r="C34">
+        <v>-0.0575184104038761</v>
+      </c>
+      <c r="D34">
+        <v>0.05273964636631662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.000807336280229922</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004987714636479576</v>
+      </c>
+      <c r="C35">
+        <v>-0.0406712833442552</v>
+      </c>
+      <c r="D35">
+        <v>0.01782841677821492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003496119431186186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00100545165802626</v>
+      </c>
+      <c r="C36">
+        <v>-0.02489108794153186</v>
+      </c>
+      <c r="D36">
+        <v>0.02135199597381417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002207622106353325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009492413872833122</v>
+      </c>
+      <c r="C38">
+        <v>-0.03441037958946394</v>
+      </c>
+      <c r="D38">
+        <v>0.01628966203078507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01233474042026076</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007568122799219021</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156570721326329</v>
+      </c>
+      <c r="D39">
+        <v>0.07446057567879739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009656249365907785</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002725947300822258</v>
+      </c>
+      <c r="C40">
+        <v>-0.09009769724957556</v>
+      </c>
+      <c r="D40">
+        <v>0.01277803197989463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008547512518336352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007317081741497337</v>
+      </c>
+      <c r="C41">
+        <v>-0.03838020131725173</v>
+      </c>
+      <c r="D41">
+        <v>0.03745526500142687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003241939206021651</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003852692048843016</v>
+      </c>
+      <c r="C43">
+        <v>-0.05352177238036743</v>
+      </c>
+      <c r="D43">
+        <v>0.02454113411089797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005286565817662673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003145270768068404</v>
+      </c>
+      <c r="C44">
+        <v>-0.1089880701715477</v>
+      </c>
+      <c r="D44">
+        <v>0.06621065324226756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001179266294460562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002031116727920757</v>
+      </c>
+      <c r="C46">
+        <v>-0.0332517540804223</v>
+      </c>
+      <c r="D46">
+        <v>0.03508400532435348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004091717230363886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002694851012711735</v>
+      </c>
+      <c r="C47">
+        <v>-0.03734538426707659</v>
+      </c>
+      <c r="D47">
+        <v>0.02186495300829655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00433638862634618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006806576010307398</v>
+      </c>
+      <c r="C48">
+        <v>-0.03128015767125276</v>
+      </c>
+      <c r="D48">
+        <v>0.03258071453257146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01150001865750956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01592144467030925</v>
+      </c>
+      <c r="C49">
+        <v>-0.1848677188410781</v>
+      </c>
+      <c r="D49">
+        <v>0.01484798816246279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0011632884134825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00365151663145968</v>
+      </c>
+      <c r="C50">
+        <v>-0.04380195126117827</v>
+      </c>
+      <c r="D50">
+        <v>0.03665735187440779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.00119145175606988</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004708205853179787</v>
+      </c>
+      <c r="C51">
+        <v>-0.02596713826697606</v>
+      </c>
+      <c r="D51">
+        <v>0.02030132785514402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0005943678211680947</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02118186598582072</v>
+      </c>
+      <c r="C53">
+        <v>-0.1700328929948751</v>
+      </c>
+      <c r="D53">
+        <v>0.02648010292648034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001449168359523753</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.009124909561918665</v>
+      </c>
+      <c r="C54">
+        <v>-0.05467577476936402</v>
+      </c>
+      <c r="D54">
+        <v>0.04509471495124778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00383527935141244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009773268796644684</v>
+      </c>
+      <c r="C55">
+        <v>-0.110298998718828</v>
+      </c>
+      <c r="D55">
+        <v>0.03881806996391123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001782350828398985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02040231041087034</v>
+      </c>
+      <c r="C56">
+        <v>-0.1745484448247224</v>
+      </c>
+      <c r="D56">
+        <v>0.01853269860311958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007964379752233646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01916470588745462</v>
+      </c>
+      <c r="C58">
+        <v>-0.10979448826728</v>
+      </c>
+      <c r="D58">
+        <v>0.06012597014171402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007557044515348449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009863005582649846</v>
+      </c>
+      <c r="C59">
+        <v>-0.1644127589615455</v>
+      </c>
+      <c r="D59">
+        <v>-0.3290188921937949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004012555160009346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02473413450804858</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225122143106614</v>
+      </c>
+      <c r="D60">
+        <v>0.0335649416497465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01448959232361326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001710511462805603</v>
+      </c>
+      <c r="C61">
+        <v>-0.09470832120468112</v>
+      </c>
+      <c r="D61">
+        <v>0.05489107650979335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1627309395517097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1466002945631305</v>
+      </c>
+      <c r="C62">
+        <v>-0.09302408576191223</v>
+      </c>
+      <c r="D62">
+        <v>0.0387044727471219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0005418762594974705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006331523620682176</v>
+      </c>
+      <c r="C63">
+        <v>-0.05504867109119693</v>
+      </c>
+      <c r="D63">
+        <v>0.02685153523122388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0007668027425761014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01491893335768982</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056165827724637</v>
+      </c>
+      <c r="D64">
+        <v>0.0572340505973068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002212119339385988</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01789986691102609</v>
+      </c>
+      <c r="C65">
+        <v>-0.1250069761344258</v>
+      </c>
+      <c r="D65">
+        <v>0.02438890240263968</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007570552690704315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01315447348803176</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595494690712614</v>
+      </c>
+      <c r="D66">
+        <v>0.1100914297455596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003705396817130121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01574505703143205</v>
+      </c>
+      <c r="C67">
+        <v>-0.06544436477448402</v>
+      </c>
+      <c r="D67">
+        <v>0.02663328651193748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006136328655590126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007933786324416832</v>
+      </c>
+      <c r="C68">
+        <v>-0.08647991182500743</v>
+      </c>
+      <c r="D68">
+        <v>-0.26116094217757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002005477516604493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006082071665397956</v>
+      </c>
+      <c r="C69">
+        <v>-0.05033115233082548</v>
+      </c>
+      <c r="D69">
+        <v>0.03732165789933379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-4.718151395544259e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001827477435364167</v>
+      </c>
+      <c r="C70">
+        <v>-0.002911790807949786</v>
+      </c>
+      <c r="D70">
+        <v>0.0005333041405062108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>8.899361496543004e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005861005061894371</v>
+      </c>
+      <c r="C71">
+        <v>-0.09412278947614618</v>
+      </c>
+      <c r="D71">
+        <v>-0.3055460448641881</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003768865154515218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01614523234312784</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529045554467869</v>
+      </c>
+      <c r="D72">
+        <v>0.01596773944119265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01177680520517918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03124758188197522</v>
+      </c>
+      <c r="C73">
+        <v>-0.2790168840071954</v>
+      </c>
+      <c r="D73">
+        <v>0.05562301427917526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005566274266810297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002039235390025811</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046217016488846</v>
+      </c>
+      <c r="D74">
+        <v>0.03533933871196215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002999515552936122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01125999413717518</v>
+      </c>
+      <c r="C75">
+        <v>-0.1250246776490965</v>
+      </c>
+      <c r="D75">
+        <v>0.02500249011959799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007914677930969789</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02214986184813054</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493711158702827</v>
+      </c>
+      <c r="D76">
+        <v>0.05736079766269821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003224515149144971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02276547615054076</v>
+      </c>
+      <c r="C77">
+        <v>-0.1203288741292179</v>
+      </c>
+      <c r="D77">
+        <v>0.08376124486116761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001346304829157057</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01505180501470554</v>
+      </c>
+      <c r="C78">
+        <v>-0.09628714181663482</v>
+      </c>
+      <c r="D78">
+        <v>0.07170896996857032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02335052260906954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03819074171085304</v>
+      </c>
+      <c r="C79">
+        <v>-0.1573196216134813</v>
+      </c>
+      <c r="D79">
+        <v>0.03088586009077287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006208951055947955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01024743396550693</v>
+      </c>
+      <c r="C80">
+        <v>-0.03977634370823261</v>
+      </c>
+      <c r="D80">
+        <v>0.02848300408493631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0005005509574371024</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01602509162774868</v>
+      </c>
+      <c r="C81">
+        <v>-0.1285570790972952</v>
+      </c>
+      <c r="D81">
+        <v>0.0404713120872392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.004038959768304447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02021075733230314</v>
+      </c>
+      <c r="C82">
+        <v>-0.1420402187399524</v>
+      </c>
+      <c r="D82">
+        <v>0.03453132024386516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008582838354216025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01012086258249712</v>
+      </c>
+      <c r="C83">
+        <v>-0.055296678022969</v>
+      </c>
+      <c r="D83">
+        <v>0.05364034298958496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01192160599474183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01140937984256795</v>
+      </c>
+      <c r="C84">
+        <v>-0.03688456073925304</v>
+      </c>
+      <c r="D84">
+        <v>-0.005414693812394208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01336891600623188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02911551653210992</v>
+      </c>
+      <c r="C85">
+        <v>-0.1259795456572211</v>
+      </c>
+      <c r="D85">
+        <v>0.04366311255076073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001688666704319431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005403048717752337</v>
+      </c>
+      <c r="C86">
+        <v>-0.04993569472601859</v>
+      </c>
+      <c r="D86">
+        <v>0.03002693948797108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003468726654636413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01059214337967653</v>
+      </c>
+      <c r="C87">
+        <v>-0.1286452337200568</v>
+      </c>
+      <c r="D87">
+        <v>0.07331477352134073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01143660540520053</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002868428366533875</v>
+      </c>
+      <c r="C88">
+        <v>-0.06504167928814159</v>
+      </c>
+      <c r="D88">
+        <v>0.01834875791254682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01382781336886273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001448818777507996</v>
+      </c>
+      <c r="C89">
+        <v>-0.1458714148151996</v>
+      </c>
+      <c r="D89">
+        <v>-0.3324962565714871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.001277740912248194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006783195887520708</v>
+      </c>
+      <c r="C90">
+        <v>-0.1203792041262796</v>
+      </c>
+      <c r="D90">
+        <v>-0.3186010634298887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0003274060019375825</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050988920884803</v>
+      </c>
+      <c r="C91">
+        <v>-0.100359523344705</v>
+      </c>
+      <c r="D91">
+        <v>0.0209719820949368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008955825937809322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001124803347440138</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358826654685042</v>
+      </c>
+      <c r="D92">
+        <v>-0.3253342905525141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0007200824063376588</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005076348999595087</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054897591023175</v>
+      </c>
+      <c r="D93">
+        <v>-0.3018385286355236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0027379435697256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02257988400353641</v>
+      </c>
+      <c r="C94">
+        <v>-0.1465938268343154</v>
+      </c>
+      <c r="D94">
+        <v>0.05270466705675495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00577188636119228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01635851203749676</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250742443649869</v>
+      </c>
+      <c r="D95">
+        <v>0.05766361170532681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0001932220173197973</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0368559426207211</v>
+      </c>
+      <c r="C97">
+        <v>-0.2126081542332632</v>
+      </c>
+      <c r="D97">
+        <v>-0.006243082950699977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003931030694315486</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03715596751545271</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493132211406278</v>
+      </c>
+      <c r="D98">
+        <v>0.04859895613394781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9849300546067066</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9817715390377394</v>
+      </c>
+      <c r="C99">
+        <v>0.1181234928171251</v>
+      </c>
+      <c r="D99">
+        <v>-0.02642201140358297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001405184783389199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003127041825831747</v>
+      </c>
+      <c r="C101">
+        <v>-0.05015264573124809</v>
+      </c>
+      <c r="D101">
+        <v>0.009176119654727049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
